--- a/input/calorimetry/ds.4.overfilled/test_4.xlsx
+++ b/input/calorimetry/ds.4.overfilled/test_4.xlsx
@@ -14,6 +14,7 @@
     <sheet name="heats" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="targets" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="enthalpies" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="setup" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -84,13 +85,22 @@
     <t xml:space="preserve">constants </t>
   </si>
   <si>
-    <t xml:space="preserve">component</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reaction</t>
   </si>
   <si>
     <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calorimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overfilled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">component</t>
   </si>
 </sst>
 </file>
@@ -168,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,10 +188,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -205,12 +211,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,12 +308,12 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,17 +357,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,13 +401,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>0.00103282338671344</v>
+        <v>0.00105611740890688</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.000991947450376174</v>
+        <v>0.000987898785425101</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.000991947450376174</v>
+        <v>0.000987898785425101</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -409,13 +417,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>0.00105592936490488</v>
+        <v>0.00107912907931617</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.000987931468795704</v>
+        <v>0.000983899195200708</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.000987931468795704</v>
+        <v>0.000983899195200708</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -425,13 +433,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>0.00107894179662591</v>
+        <v>0.00110204758506792</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.000983931746249972</v>
+        <v>0.000979915797649288</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.000983931746249972</v>
+        <v>0.000979915797649288</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -441,13 +449,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>0.00110186106060718</v>
+        <v>0.001124873303347</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.000979948216912928</v>
+        <v>0.000975948527213461</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.000979948216912928</v>
+        <v>0.000975948527213461</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -457,13 +465,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>0.00112468753404602</v>
+        <v>0.00114760660981118</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.000975980815225021</v>
+        <v>0.000971997318601261</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.000975980815225021</v>
+        <v>0.000971997318601261</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -473,13 +481,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>0.00114742159261264</v>
+        <v>0.00117024787859737</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.000972029475892126</v>
+        <v>0.000968062106785061</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.000972029475892126</v>
+        <v>0.000968062106785061</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -489,13 +497,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>0.00117006361045631</v>
+        <v>0.00119279748232775</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.000968094133884466</v>
+        <v>0.000964142827000506</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.000968094133884466</v>
+        <v>0.000964142827000506</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -505,13 +513,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>0.00119261396021155</v>
+        <v>0.00121525579211589</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.000964174724435541</v>
+        <v>0.000960239414745443</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.000964174724435541</v>
+        <v>0.000960239414745443</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -521,13 +529,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>0.00121507301300421</v>
+        <v>0.00123762317757291</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.000960271183041065</v>
+        <v>0.000956351805778863</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.000960271183041065</v>
+        <v>0.000956351805778863</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -537,13 +545,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>0.00123744113845764</v>
+        <v>0.00125990000681351</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.000956383445457903</v>
+        <v>0.000952479936119839</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.000956383445457903</v>
+        <v>0.000952479936119839</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -552,14 +560,14 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>0.0012597187046987</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0.000952511447703012</v>
+      <c r="A13" s="0" t="n">
+        <v>0.00128208664646204</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.000948623742046479</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.000952511447703012</v>
+        <v>0.000948623742046479</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -569,13 +577,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>0.00128190607836389</v>
+        <v>0.00130418346165855</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.000948655126052393</v>
+        <v>0.000944783160094874</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.000948655126052393</v>
+        <v>0.000944783160094874</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -584,13 +592,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>0.00130400362460533</v>
+        <v>0.00132619081606479</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.000944814417040035</v>
+        <v>0.000940958127058053</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.000944814417040035</v>
+        <v>0.000940958127058053</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -599,554 +607,490 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>0.0013260117070968</v>
+        <v>0.00134810907187019</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.000940989257456877</v>
+        <v>0.000937148579984943</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.000940989257456877</v>
+        <v>0.000937148579984943</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>0.00134793068803973</v>
+        <v>0.00136993858979784</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.000937179584349764</v>
+        <v>0.000933354456179336</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.000937179584349764</v>
+        <v>0.000933354456179336</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>0.00136976092816913</v>
+        <v>0.0013916797291104</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.000933385335020413</v>
+        <v>0.000929575693198853</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.000933385335020413</v>
+        <v>0.000929575693198853</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>0.00139150278675953</v>
+        <v>0.00141333284761603</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.000929606447024379</v>
+        <v>0.000925812228853918</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.000929606447024379</v>
+        <v>0.000925812228853918</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>0.00141315662163095</v>
+        <v>0.00143489830167426</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.000925842858170029</v>
+        <v>0.000922064001206736</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.000925842858170029</v>
+        <v>0.000922064001206736</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>0.00143472278915471</v>
+        <v>0.0014563764462019</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.000922094506517519</v>
+        <v>0.000918330948570272</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.000922094506517519</v>
+        <v>0.000918330948570272</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>0.00145620164425935</v>
+        <v>0.00147776763467881</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.000918361330377771</v>
+        <v>0.000914613009507234</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.000918361330377771</v>
+        <v>0.000914613009507234</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>0.00147759354043644</v>
+        <v>0.0014990722191538</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.000914643268311465</v>
+        <v>0.000910910122829067</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.000914643268311465</v>
+        <v>0.000910910122829067</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>0.00149889882974641</v>
+        <v>0.00152029055025034</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.000910940259128017</v>
+        <v>0.000907222227594941</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.000910940259128017</v>
+        <v>0.000907222227594941</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>0.00152011786282436</v>
+        <v>0.0015414229771724</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.000907252241884584</v>
+        <v>0.000903549263110751</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.000907252241884584</v>
+        <v>0.000903549263110751</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>0.0015412509888858</v>
+        <v>0.00156246984771017</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.000903579155885051</v>
+        <v>0.000899891168928117</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.000903579155885051</v>
+        <v>0.000899891168928117</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>0.00156229855573242</v>
+        <v>0.00158343150824575</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.000899920940679039</v>
+        <v>0.000896247884843387</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.000899920940679039</v>
+        <v>0.000896247884843387</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>0.00158326090975779</v>
+        <v>0.00160430830375893</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.000896277536060905</v>
+        <v>0.000892619350896653</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.000896277536060905</v>
+        <v>0.000892619350896653</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>0.0016041383959531</v>
+        <v>0.00162510057783278</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.000892648882068755</v>
+        <v>0.000889005507370755</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.000892648882068755</v>
+        <v>0.000889005507370755</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>0.00162493135791281</v>
+        <v>0.00164580867265937</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.000889034918983457</v>
+        <v>0.000885406294790307</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.000889034918983457</v>
+        <v>0.000885406294790307</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>0.00164564013784029</v>
+        <v>0.00166643292904536</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.000885435587327653</v>
+        <v>0.000881821653920711</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.000885435587327653</v>
+        <v>0.000881821653920711</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>0.00166626507655348</v>
+        <v>0.00168697368641765</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.000881850827864788</v>
+        <v>0.000878251525767185</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.000881850827864788</v>
+        <v>0.000878251525767185</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>0.00168680651349051</v>
+        <v>0.00170743128282891</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.000878280581598129</v>
+        <v>0.000874695851573796</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.000878280581598129</v>
+        <v>0.000874695851573796</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>0.00170726478671525</v>
+        <v>0.00172780605496321</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.000874724789769797</v>
+        <v>0.000871154572822485</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.000874724789769797</v>
+        <v>0.000871154572822485</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>0.00172764023292288</v>
+        <v>0.00174809833814149</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.000871183393859798</v>
+        <v>0.000867627631232111</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.000871183393859798</v>
+        <v>0.000867627631232111</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>0.00174793318744546</v>
+        <v>0.00176830846632716</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.000867656335585061</v>
+        <v>0.000864114968757487</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.000867656335585061</v>
+        <v>0.000864114968757487</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>0.00176814398425742</v>
+        <v>0.0017884367721315</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.000864143556898482</v>
+        <v>0.000860616527588428</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.000864143556898482</v>
+        <v>0.000860616527588428</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>0.00178827295598107</v>
+        <v>0.00180848358681923</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.000860644999987962</v>
+        <v>0.000857132250148799</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.000860644999987962</v>
+        <v>0.000857132250148799</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>0.00180832043389208</v>
+        <v>0.00182844924031388</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.00085716060727546</v>
+        <v>0.000853662079095565</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.00085716060727546</v>
+        <v>0.000853662079095565</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>0.00182828674792491</v>
+        <v>0.0018483340612033</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.000853690321416045</v>
+        <v>0.00085020595731785</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.000853690321416045</v>
+        <v>0.00085020595731785</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>0.00184817222667825</v>
+        <v>0.00186813837674499</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.000850234085296952</v>
+        <v>0.000846763827935996</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.000850234085296952</v>
+        <v>0.000846763827935996</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>0.00186797719742044</v>
+        <v>0.00188786251287153</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.00084679184203664</v>
+        <v>0.000843335634300628</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.00084679184203664</v>
+        <v>0.000843335634300628</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>0.00188770198609485</v>
+        <v>0.00190750679419593</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.00084336353498386</v>
+        <v>0.000839921319991718</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.00084336353498386</v>
+        <v>0.000839921319991718</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>0.00190734691732524</v>
+        <v>0.001927071544017</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.000839949107716719</v>
+        <v>0.000836520828817663</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.000839949107716719</v>
+        <v>0.000836520828817663</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>0.00192691231442109</v>
+        <v>0.00194655708432463</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.000836548504041753</v>
+        <v>0.000833134104814352</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.000836548504041753</v>
+        <v>0.000833134104814352</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>0.00194639849938294</v>
+        <v>0.00196596373580509</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.000833161667993</v>
+        <v>0.000829761092244254</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.000833161667993</v>
+        <v>0.000829761092244254</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>0.00196580579290771</v>
+        <v>0.001047</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.000829788543831086</v>
+        <v>0.001047</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.000829788543831086</v>
+        <v>1E-016</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+        <v>12</v>
+      </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>0.00108548785425101</v>
+        <v>0.00120095141700405</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.00104488056680162</v>
+        <v>0.00103853513825829</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>1E-016</v>
@@ -1154,16 +1098,14 @@
       <c r="D48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>0.00120071768509564</v>
+        <v>0.00148727300480257</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.00103853513825829</v>
+        <v>0.00102276790437785</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1E-016</v>
@@ -1171,16 +1113,14 @@
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>0.00148704282145553</v>
+        <v>0.00176924760493209</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.00102276790437785</v>
+        <v>0.00100724005157859</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1E-016</v>
@@ -1188,16 +1128,13 @@
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>0.00176902091627148</v>
+        <v>0.00204694121416895</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.00100724005157859</v>
+        <v>0.000991947945532358</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1E-016</v>
@@ -1205,16 +1142,13 @@
       <c r="D51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>0.00204671796713781</v>
+        <v>0.00232041882731415</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.000991947945532358</v>
+        <v>0.00097688800708804</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>1E-016</v>
@@ -1222,16 +1156,13 @@
       <c r="D52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>0.00232019896966102</v>
+        <v>0.00258974445240554</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.00097688800708804</v>
+        <v>0.00096205671143387</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>1E-016</v>
@@ -1239,16 +1170,13 @@
       <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>0.00258952793267224</v>
+        <v>0.00285498112569898</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.00096205671143387</v>
+        <v>0.000947450587272424</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>1E-016</v>
@@ -1256,16 +1184,13 @@
       <c r="D54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>0.00285476789320859</v>
+        <v>0.00311619092642217</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.000947450587272424</v>
+        <v>0.000933066216008167</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>1E-016</v>
@@ -1273,16 +1198,13 @@
       <c r="D55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>0.00311598093126717</v>
+        <v>0.00337343499130443</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.000933066216008167</v>
+        <v>0.000918900230947314</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>1E-016</v>
@@ -1290,16 +1212,13 @@
       <c r="D56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>0.00337322818433497</v>
+        <v>0.00362677352888584</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.000918900230947314</v>
+        <v>0.000904949316509855</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>1E-016</v>
@@ -1307,16 +1226,13 @@
       <c r="D57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>0.00362656986169831</v>
+        <v>0.00387626583360923</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.000904949316509855</v>
+        <v>0.000891210207453531</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>1E-016</v>
@@ -1324,16 +1240,13 @@
       <c r="D58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>0.00387606525853487</v>
+        <v>0.00412197029969816</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.000891210207453531</v>
+        <v>0.000877679688109601</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>1E-016</v>
@@ -1344,10 +1257,10 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>0.00412177276979193</v>
+        <v>0.0043639444348242</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.000877679688109601</v>
+        <v>0.000864354591630204</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1E-016</v>
@@ -1358,10 +1271,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>0.0043637499038538</v>
+        <v>0.00460224487356675</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.000864354591630204</v>
+        <v>0.000851231799247154</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1E-016</v>
@@ -1372,10 +1285,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>0.00460205329600177</v>
+        <v>0.00483692739066846</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.000851231799247154</v>
+        <v>0.000838308239541985</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1E-016</v>
@@ -1386,29 +1299,15 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>0.00483673872166975</v>
+        <v>0.00506804691408949</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.000838308239541985</v>
+        <v>0.000825580887727076</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1E-016</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>0.00506786110949865</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>0.000825580887727076</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>1E-016</v>
-      </c>
-      <c r="D64" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1428,15 +1327,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BI5"/>
+  <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BA13" activeCellId="0" sqref="BA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,16 +1521,13 @@
       <c r="BH1" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.004</v>
@@ -1707,10 +1605,10 @@
         <v>0.004</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>0.004</v>
+        <v>0.00399999999999978</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>0.00399999999999978</v>
+        <v>0.004</v>
       </c>
       <c r="AD2" s="0" t="n">
         <v>0.004</v>
@@ -1758,54 +1656,51 @@
         <v>0.004</v>
       </c>
       <c r="AS2" s="0" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="AT2" s="0" t="n">
-        <v>0.002</v>
+        <v>0.00600000000000001</v>
       </c>
       <c r="AU2" s="0" t="n">
-        <v>0.00600000000000001</v>
+        <v>0.0149999999999999</v>
       </c>
       <c r="AV2" s="0" t="n">
+        <v>0.0150000000000001</v>
+      </c>
+      <c r="AW2" s="0" t="n">
         <v>0.0149999999999999</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AX2" s="0" t="n">
         <v>0.0150000000000001</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AY2" s="0" t="n">
         <v>0.0149999999999999</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AZ2" s="0" t="n">
         <v>0.0150000000000001</v>
       </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="BA2" s="0" t="n">
         <v>0.0149999999999999</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BB2" s="0" t="n">
         <v>0.0150000000000001</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BC2" s="0" t="n">
         <v>0.0149999999999999</v>
-      </c>
-      <c r="BC2" s="0" t="n">
-        <v>0.0150000000000001</v>
       </c>
       <c r="BD2" s="0" t="n">
         <v>0.0149999999999999</v>
       </c>
       <c r="BE2" s="0" t="n">
+        <v>0.0150000000000001</v>
+      </c>
+      <c r="BF2" s="0" t="n">
         <v>0.0149999999999999</v>
       </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BG2" s="0" t="n">
         <v>0.0150000000000001</v>
       </c>
-      <c r="BG2" s="0" t="n">
-        <v>0.0149999999999999</v>
-      </c>
       <c r="BH2" s="0" t="n">
-        <v>0.0150000000000001</v>
-      </c>
-      <c r="BI2" s="0" t="n">
         <v>0.0149999999999999</v>
       </c>
     </row>
@@ -1814,183 +1709,180 @@
         <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.000319</v>
+        <v>0.000328</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.000328</v>
+        <v>0.000338</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.000338</v>
+        <v>0.00034</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>0.000342</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>0.00034</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>0.000342</v>
-      </c>
       <c r="G3" s="0" t="n">
-        <v>0.00034</v>
+        <v>0.000344</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.000344</v>
+        <v>0.000341</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.000341</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.000341</v>
+        <v>0.000344</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.000344</v>
+        <v>0.000342</v>
       </c>
       <c r="L3" s="0" t="n">
+        <v>0.00034</v>
+      </c>
+      <c r="M3" s="0" t="n">
         <v>0.000342</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0.00034</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>0.000342</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.000342</v>
+        <v>0.000341</v>
       </c>
       <c r="P3" s="0" t="n">
+        <v>0.00034</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.000344</v>
+      </c>
+      <c r="R3" s="0" t="n">
         <v>0.000341</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>0.00034</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0.000344</v>
-      </c>
       <c r="S3" s="0" t="n">
-        <v>0.000341</v>
+        <v>0.000335</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.000335</v>
+        <v>0.000329</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>0.000329</v>
+        <v>0.000326</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0.000326</v>
+        <v>0.000316</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>0.000316</v>
+        <v>0.000315</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>0.000315</v>
+        <v>0.000305</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>0.000305</v>
+        <v>0.000299</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>0.000299</v>
+        <v>0.000286</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>0.000286</v>
+        <v>0.000273</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>0.000273</v>
+        <v>0.000256</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>0.000256</v>
+        <v>0.000245</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>0.000245</v>
+        <v>0.000224</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>0.000224</v>
+        <v>0.000206</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>0.000206</v>
+        <v>0.000182</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>0.000182</v>
+        <v>0.000155</v>
       </c>
       <c r="AH3" s="0" t="n">
-        <v>0.000155</v>
+        <v>0.000139</v>
       </c>
       <c r="AI3" s="0" t="n">
-        <v>0.000139</v>
+        <v>0.000124</v>
       </c>
       <c r="AJ3" s="0" t="n">
-        <v>0.000124</v>
+        <v>0.000107</v>
       </c>
       <c r="AK3" s="0" t="n">
+        <v>9.2E-005</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>8.1E-005</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>7E-005</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>6.2E-005</v>
+      </c>
+      <c r="AO3" s="0" t="n">
+        <v>5.6E-005</v>
+      </c>
+      <c r="AP3" s="0" t="n">
+        <v>4.5E-005</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>4.2E-005</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <v>3.4E-005</v>
+      </c>
+      <c r="AS3" s="0" t="n">
+        <v>0.000625</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>0.000688</v>
+      </c>
+      <c r="AU3" s="0" t="n">
+        <v>0.000251</v>
+      </c>
+      <c r="AV3" s="0" t="n">
+        <v>0.000149</v>
+      </c>
+      <c r="AW3" s="0" t="n">
         <v>0.000107</v>
       </c>
-      <c r="AL3" s="0" t="n">
-        <v>9.2E-005</v>
-      </c>
-      <c r="AM3" s="0" t="n">
-        <v>8.1E-005</v>
-      </c>
-      <c r="AN3" s="0" t="n">
-        <v>7E-005</v>
-      </c>
-      <c r="AO3" s="0" t="n">
-        <v>6.2E-005</v>
-      </c>
-      <c r="AP3" s="0" t="n">
-        <v>5.6E-005</v>
-      </c>
-      <c r="AQ3" s="0" t="n">
-        <v>4.5E-005</v>
-      </c>
-      <c r="AR3" s="0" t="n">
-        <v>4.2E-005</v>
-      </c>
-      <c r="AS3" s="0" t="n">
-        <v>3.4E-005</v>
-      </c>
-      <c r="AT3" s="0" t="n">
-        <v>0.000625</v>
-      </c>
-      <c r="AU3" s="0" t="n">
-        <v>0.000688</v>
-      </c>
-      <c r="AV3" s="0" t="n">
-        <v>0.000251</v>
-      </c>
-      <c r="AW3" s="0" t="n">
-        <v>0.000149</v>
-      </c>
       <c r="AX3" s="0" t="n">
-        <v>0.000107</v>
+        <v>8.5E-005</v>
       </c>
       <c r="AY3" s="0" t="n">
-        <v>8.5E-005</v>
+        <v>7.8E-005</v>
       </c>
       <c r="AZ3" s="0" t="n">
-        <v>7.8E-005</v>
+        <v>6.7E-005</v>
       </c>
       <c r="BA3" s="0" t="n">
-        <v>6.7E-005</v>
+        <v>5.8E-005</v>
       </c>
       <c r="BB3" s="0" t="n">
-        <v>5.8E-005</v>
+        <v>5.4E-005</v>
       </c>
       <c r="BC3" s="0" t="n">
-        <v>5.4E-005</v>
+        <v>5.3E-005</v>
       </c>
       <c r="BD3" s="0" t="n">
         <v>5.3E-005</v>
       </c>
       <c r="BE3" s="0" t="n">
-        <v>5.3E-005</v>
+        <v>4.8E-005</v>
       </c>
       <c r="BF3" s="0" t="n">
-        <v>4.8E-005</v>
+        <v>4.1E-005</v>
       </c>
       <c r="BG3" s="0" t="n">
-        <v>4.1E-005</v>
+        <v>3.8E-005</v>
       </c>
       <c r="BH3" s="0" t="n">
-        <v>3.8E-005</v>
-      </c>
-      <c r="BI3" s="0" t="n">
         <v>3.8E-005</v>
       </c>
     </row>
@@ -2175,9 +2067,6 @@
       <c r="BH4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="BI4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -2358,9 +2247,6 @@
         <v>1E-009</v>
       </c>
       <c r="BH5" s="0" t="n">
-        <v>1E-009</v>
-      </c>
-      <c r="BI5" s="0" t="n">
         <v>1E-009</v>
       </c>
     </row>
@@ -2380,15 +2266,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,13 +2284,8 @@
       <c r="B1" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
+      <c r="C1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2423,10 +2304,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2436,34 +2368,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>15.593</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/input/calorimetry/ds.4.overfilled/test_4.xlsx
+++ b/input/calorimetry/ds.4.overfilled/test_4.xlsx
@@ -5,16 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="input_k_constants_log10" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="heats" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="targets" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="enthalpies" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="setup" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="enthalpies" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="setup" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -82,25 +81,25 @@
     <t xml:space="preserve">deviation</t>
   </si>
   <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calorimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overfilled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">component</t>
+  </si>
+  <si>
     <t xml:space="preserve">constants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calorimeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overfilled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">component</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1328,7 @@
   </sheetPr>
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BA13" activeCellId="0" sqref="BA13"/>
     </sheetView>
   </sheetViews>
@@ -2266,10 +2265,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2282,10 +2281,23 @@
         <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2304,58 +2316,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
@@ -2368,15 +2329,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.988</v>
@@ -2384,10 +2345,21 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
